--- a/aa/aa.xlsx
+++ b/aa/aa.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7F-001\Desktop\gitTest\aa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7F-001\Desktop\Git2\aa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E245B4B9-1F27-4E6B-8B59-0978990A61B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89067267-50C4-4834-85EC-7B06CA17D5AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="12345" yWindow="1485" windowWidth="16440" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12345" yWindow="1485" windowWidth="16440" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -66,9 +62,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="32" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -349,17 +346,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1">
         <v>44071</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0.76388888888888884</v>
       </c>
     </row>
   </sheetData>

--- a/aa/aa.xlsx
+++ b/aa/aa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7F-001\Desktop\Git2\aa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89067267-50C4-4834-85EC-7B06CA17D5AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05287458-5B61-48CD-9146-43228AAF73E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12345" yWindow="1485" windowWidth="16440" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15510" yWindow="1485" windowWidth="13275" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,23 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>やっほーい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わーい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(((o(*ﾟ▽ﾟ*)o)))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -346,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -365,6 +382,21 @@
         <v>0.76388888888888884</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aa/aa.xlsx
+++ b/aa/aa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7F-001\Desktop\Git2\aa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05287458-5B61-48CD-9146-43228AAF73E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446D4BD2-2B76-492C-972B-3112685E4247}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15510" yWindow="1485" windowWidth="13275" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>やっほーい</t>
     <phoneticPr fontId="1"/>
@@ -36,6 +36,10 @@
   </si>
   <si>
     <t>(((o(*ﾟ▽ﾟ*)o)))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ねむい！！！</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -363,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -397,6 +401,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aa/aa.xlsx
+++ b/aa/aa.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7F-001\Desktop\Git2\aa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7F-004\Desktop\test\aa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446D4BD2-2B76-492C-972B-3112685E4247}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C015FBF-B1E5-406B-9D1C-87DD3A43AB40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15510" yWindow="1485" windowWidth="13275" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3135" yWindow="345" windowWidth="14400" windowHeight="9990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>やっほーい</t>
     <phoneticPr fontId="1"/>
@@ -40,6 +40,13 @@
   </si>
   <si>
     <t>ねむい！！！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集したと</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -367,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -406,6 +413,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aa/aa.xlsx
+++ b/aa/aa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7F-004\Desktop\test\aa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C015FBF-B1E5-406B-9D1C-87DD3A43AB40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6602F8C3-F7C9-44E9-A77F-1A473C563DDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3135" yWindow="345" windowWidth="14400" windowHeight="9990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="525" windowWidth="14400" windowHeight="9990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>編集したと</t>
+    <t>編集したと！！！！！</t>
     <rPh sb="0" eb="2">
       <t>ヘンシュウ</t>
     </rPh>

--- a/aa/aa.xlsx
+++ b/aa/aa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7F-004\Desktop\test\aa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6602F8C3-F7C9-44E9-A77F-1A473C563DDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90019C9E-3F73-4DF1-9E70-F387E9F36A1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="525" windowWidth="14400" windowHeight="9990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13890" yWindow="4860" windowWidth="14400" windowHeight="9990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>編集したと！！！！！</t>
+    <t>編集したぞぞぞぞぞぞぞほかり！！！！！</t>
     <rPh sb="0" eb="2">
       <t>ヘンシュウ</t>
     </rPh>
@@ -377,7 +377,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -421,5 +421,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/aa/aa.xlsx
+++ b/aa/aa.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7F-003\Desktop\test\aa\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA622A2-75AE-4310-9A25-155E35036E1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="23310" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,38 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>なおし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ななおし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なななおし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +83,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +360,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>